--- a/resources/Testdata.xlsx
+++ b/resources/Testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>

--- a/resources/Testdata.xlsx
+++ b/resources/Testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
